--- a/src/test/java/com/qa/testdata/JAC_10th_RollNumbers.xlsx
+++ b/src/test/java/com/qa/testdata/JAC_10th_RollNumbers.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All My Core Programming\Testing-with-Java\JAC-RanchiResults\src\test\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75A7717-86CD-427A-8057-E55DEC8C1315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9873FDA2-4196-4DAA-872F-2A9AFB47601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E868D662-D330-45A3-9F2B-0F3BCCD3D690}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GCHSB" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>

--- a/src/test/java/com/qa/testdata/JAC_10th_RollNumbers.xlsx
+++ b/src/test/java/com/qa/testdata/JAC_10th_RollNumbers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All My Core Programming\Testing-with-Java\JAC-RanchiResults\src\test\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9873FDA2-4196-4DAA-872F-2A9AFB47601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915E7A0-29F4-400B-9120-2EA0514F21B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E868D662-D330-45A3-9F2B-0F3BCCD3D690}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{E868D662-D330-45A3-9F2B-0F3BCCD3D690}"/>
   </bookViews>
   <sheets>
     <sheet name="GCHSB" sheetId="1" r:id="rId1"/>
+    <sheet name="22097" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="301">
   <si>
     <t>RollCode</t>
   </si>
@@ -998,13 +999,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521757B4-7201-488D-9D7F-6BEC306E2362}">
   <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,4 +3738,265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4800665-F08F-4DFC-8CEB-B65A7C79EFB8}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22097</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22097</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22097</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22097</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22097</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22097</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22097</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22097</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22097</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22097</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>22097</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>22097</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>22097</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>22097</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>22097</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>22097</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>22097</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>22097</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22097</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22097</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22097</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22097</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22097</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22097</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22097</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22097</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22097</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22097</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22097</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>